--- a/Dokumenty/Členové_hodiny.xlsx
+++ b/Dokumenty/Členové_hodiny.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jirka\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E42037-5875-4047-8408-978795A7411C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2242BF87-1E98-4827-AE8B-D49A5C323486}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3375" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23052" yWindow="420" windowWidth="7644" windowHeight="12444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -420,7 +420,7 @@
   <dimension ref="A3:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,8 +454,8 @@
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <f>5+14+12+15+10+19.5</f>
-        <v>75.5</v>
+        <f>5+12+14+15+10+19.5+3+2</f>
+        <v>80.5</v>
       </c>
       <c r="C5" s="1">
         <v>19.5</v>
@@ -466,8 +466,8 @@
         <v>0</v>
       </c>
       <c r="B6" s="1">
-        <f>15.5 + 2+11+1+5+6+10+2+15</f>
-        <v>67.5</v>
+        <f>15.5+1+11+5+6+10+15+2+3+2+2</f>
+        <v>72.5</v>
       </c>
       <c r="C6" s="1">
         <v>15.5</v>
@@ -478,8 +478,8 @@
         <v>1</v>
       </c>
       <c r="B7" s="1">
-        <f>5+15+16+13+1+18.5</f>
-        <v>68.5</v>
+        <f>18.5+13+16+14+5+3+2</f>
+        <v>71.5</v>
       </c>
       <c r="C7" s="1">
         <v>18.5</v>
@@ -490,8 +490,8 @@
         <v>2</v>
       </c>
       <c r="B8" s="1">
-        <f>14.5+11+13+1+15+5+8+5</f>
-        <v>72.5</v>
+        <f>14.5+13+6+15+5+8+3+2+11</f>
+        <v>77.5</v>
       </c>
       <c r="C8" s="1">
         <v>14.5</v>
@@ -502,8 +502,8 @@
         <v>3</v>
       </c>
       <c r="B9" s="1">
-        <f>1+16+6+6+13+15+2+14.75</f>
-        <v>73.75</v>
+        <f>14.75+5+16+6+15+2+3+2+13+4</f>
+        <v>80.75</v>
       </c>
       <c r="C9" s="1">
         <v>14.75</v>
@@ -514,8 +514,8 @@
         <v>4</v>
       </c>
       <c r="B10" s="1">
-        <f>1+7+13+13+10+5+9+14.5</f>
-        <v>72.5</v>
+        <f>14.5+7+13+9+10+5+3+2+13</f>
+        <v>76.5</v>
       </c>
       <c r="C10" s="1">
         <v>14.5</v>

--- a/Dokumenty/Členové_hodiny.xlsx
+++ b/Dokumenty/Členové_hodiny.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jirka\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2242BF87-1E98-4827-AE8B-D49A5C323486}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DE6F02-8615-497B-A1D6-77C316E27A1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23052" yWindow="420" windowWidth="7644" windowHeight="12444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12135" yWindow="4410" windowWidth="11040" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Jiří Kaplan</t>
   </si>
@@ -54,26 +54,29 @@
     <t>Jiří Blažek</t>
   </si>
   <si>
-    <t>Naplánované hodiny</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. sprint </t>
   </si>
   <si>
     <t>Členové</t>
   </si>
   <si>
-    <t>Potřebujeme splnit</t>
-  </si>
-  <si>
-    <t>86H</t>
+    <t xml:space="preserve">2. sprint </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. sprint </t>
+  </si>
+  <si>
+    <t>Potřebujeme splnit 86h</t>
+  </si>
+  <si>
+    <t>Celkem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +100,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -417,111 +426,159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:C10"/>
+  <dimension ref="A3:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="1.44140625" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
-        <f>5+12+14+15+10+19.5+3+2</f>
-        <v>80.5</v>
-      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="1">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>43.5</v>
+      </c>
+      <c r="E5">
+        <v>28</v>
+      </c>
+      <c r="F5">
+        <f>SUM(C5:E5)</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="1">
-        <f>15.5+1+11+5+6+10+15+2+3+2+2</f>
-        <v>72.5</v>
-      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>51</v>
+      </c>
+      <c r="E6">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F10" si="0">SUM(C6:E6)</f>
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="1">
-        <f>18.5+13+16+14+5+3+2</f>
-        <v>71.5</v>
-      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="1">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>42.5</v>
+      </c>
+      <c r="E7">
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="1">
-        <f>14.5+13+6+15+5+8+3+2+11</f>
-        <v>77.5</v>
-      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="1">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>51</v>
+      </c>
+      <c r="E8">
+        <v>26</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>91.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="1">
-        <f>14.75+5+16+6+15+2+3+2+13+4</f>
-        <v>80.75</v>
-      </c>
+      <c r="B9" s="1"/>
       <c r="C9" s="1">
         <v>14.75</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>45</v>
+      </c>
+      <c r="E9">
+        <v>23</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>82.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="1">
-        <f>14.5+7+13+9+10+5+3+2+13</f>
-        <v>76.5</v>
-      </c>
+      <c r="B10" s="1"/>
       <c r="C10" s="1">
         <v>14.5</v>
       </c>
+      <c r="D10">
+        <v>45</v>
+      </c>
+      <c r="E10">
+        <v>25</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>84.5</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
